--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D881308-6FE5-419C-9686-69D703A97D6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A609756-8372-424B-BA66-A65DAA5C5DC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="19125" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="135" windowWidth="19125" windowHeight="10995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,54 +131,6 @@
   </si>
   <si>
     <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rhalsgur0086@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rhdtjd1592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고민혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4728-1798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노원구 공릉동 441-54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄태욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1534-6789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>male</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName"/>
     <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity"/>
@@ -285,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4C8E330E-5FEE-4F1A-A252-7446A1DD52BB}" name="hospitalCode"/>
     <tableColumn id="2" xr3:uid="{653B151D-186A-472C-9914-FA540F658E26}" name="address"/>
@@ -298,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="name"/>
     <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age"/>
@@ -579,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C6FA5-D791-4528-9D45-9C58A263ECD5}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,53 +607,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3">
-        <v>313</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{931C20A8-28A7-4637-80F9-7A0002AFF2F2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585D3081-E49F-4685-97DB-769B8C332D54}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,23 +670,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>313</v>
-      </c>
-      <c r="D3">
-        <v>111</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,10 +681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3381C-D441-4B5E-AD32-B271DA92FD2E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,20 +723,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,10 +735,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,32 +805,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>313</v>
-      </c>
-      <c r="E3">
-        <v>111</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A609756-8372-424B-BA66-A65DAA5C5DC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C38919-9C0A-457F-BA92-D583CE34C3B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="19125" windowHeight="10995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="0" windowWidth="14310" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C6FA5-D791-4528-9D45-9C58A263ECD5}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,8 +606,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
+      <c r="I3" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C38919-9C0A-457F-BA92-D583CE34C3B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01AC344-6A9A-4B14-9BCE-17AB0F0AA58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="0" windowWidth="14310" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="75" windowWidth="14430" windowHeight="6495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,42 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedXposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedYposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherBedX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherBedY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doorX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doorY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,9 +282,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="name"/>
     <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age"/>
     <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone"/>
@@ -261,6 +293,12 @@
     <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate"/>
     <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender"/>
     <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq"/>
+    <tableColumn id="9" xr3:uid="{9AEBCCF4-E010-4005-AB41-5811D1306197}" name="bedXposition"/>
+    <tableColumn id="10" xr3:uid="{2615489D-4AC2-41B7-B6A3-504F3A2787FD}" name="bedYposition"/>
+    <tableColumn id="11" xr3:uid="{A6B690BA-E726-41B1-A126-809E007F83AC}" name="otherBedX"/>
+    <tableColumn id="12" xr3:uid="{9419B038-337B-4834-A444-20AFE2E9F8C8}" name="otherBedY"/>
+    <tableColumn id="13" xr3:uid="{6A0745B2-EF9D-4F8C-9BA8-5FC8F5A550EB}" name="doorX"/>
+    <tableColumn id="14" xr3:uid="{AE1B7094-3D5C-4295-A0C3-74761BA65477}" name="doorY"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C6FA5-D791-4528-9D45-9C58A263ECD5}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -579,31 +617,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -625,7 +663,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,24 +689,24 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -685,13 +723,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -707,21 +745,21 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -736,25 +774,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -774,36 +817,72 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01AC344-6A9A-4B14-9BCE-17AB0F0AA58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437DD69-B07F-4B80-A2C1-CC614868E2AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="75" windowWidth="14430" windowHeight="6495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="150" windowWidth="21285" windowHeight="6390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accessToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,14 @@
   </si>
   <si>
     <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null auto pri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,11 +241,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6D09DD67-084D-48CF-B411-F8E469AD0C7B}" name="userSeq"/>
-    <tableColumn id="2" xr3:uid="{A7DA33C3-4D75-48D0-8E11-BE9778204B04}" name="accessToken"/>
     <tableColumn id="3" xr3:uid="{8AC04EDC-A089-4451-88D7-6DE9DEAD41C2}" name="email"/>
     <tableColumn id="4" xr3:uid="{C9E87F63-01B4-4AD3-8ECD-3206282A1874}" name="pw"/>
     <tableColumn id="5" xr3:uid="{C5A3B37B-3AEF-4496-A690-76F6A1D0CB92}" name="userName"/>
@@ -255,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName"/>
     <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity"/>
@@ -269,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4C8E330E-5FEE-4F1A-A252-7446A1DD52BB}" name="hospitalCode"/>
     <tableColumn id="2" xr3:uid="{653B151D-186A-472C-9914-FA540F658E26}" name="address"/>
@@ -282,9 +285,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:N3" totalsRowShown="0">
+  <autoFilter ref="A1:N3" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
   <tableColumns count="14">
+    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq"/>
     <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="name"/>
     <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age"/>
     <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone"/>
@@ -292,7 +296,6 @@
     <tableColumn id="5" xr3:uid="{3716D98C-2A9A-4AB4-AFF6-DBE66271FB30}" name="hospitalCode"/>
     <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate"/>
     <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender"/>
-    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq"/>
     <tableColumn id="9" xr3:uid="{9AEBCCF4-E010-4005-AB41-5811D1306197}" name="bedXposition"/>
     <tableColumn id="10" xr3:uid="{2615489D-4AC2-41B7-B6A3-504F3A2787FD}" name="bedYposition"/>
     <tableColumn id="11" xr3:uid="{A6B690BA-E726-41B1-A126-809E007F83AC}" name="otherBedX"/>
@@ -570,20 +573,19 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -591,61 +593,67 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" ph="1"/>
       <c r="I3" ph="1"/>
     </row>
   </sheetData>
@@ -660,15 +668,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585D3081-E49F-4685-97DB-769B8C332D54}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
@@ -686,27 +694,66 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1101</v>
+      </c>
+      <c r="D4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2202</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -720,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3381C-D441-4B5E-AD32-B271DA92FD2E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,35 +778,49 @@
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -774,22 +835,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
@@ -799,90 +860,101 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
       <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437DD69-B07F-4B80-A2C1-CC614868E2AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D329CC-CED7-4058-BA29-4E4138D2190D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="150" windowWidth="21285" windowHeight="6390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
     <sheet name="Room" sheetId="3" r:id="rId2"/>
     <sheet name="Hospital" sheetId="4" r:id="rId3"/>
     <sheet name="Patient" sheetId="5" r:id="rId4"/>
+    <sheet name="Bed" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,43 +127,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bedXposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bedYposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherBedX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherBedY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doorX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doorY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null auto pri</t>
+    <t>loginToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testname1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testphone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testuserType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testname2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testname3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testname4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testphone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testphone3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testphone4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testuserType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testuserType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testuserType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testroomName1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testroomName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testroomName3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testroomName4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testaddress1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testaddress2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientphone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientphone3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientphone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientphone4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientnName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,15 +352,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -241,69 +450,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6D09DD67-084D-48CF-B411-F8E469AD0C7B}" name="userSeq"/>
     <tableColumn id="3" xr3:uid="{8AC04EDC-A089-4451-88D7-6DE9DEAD41C2}" name="email"/>
+    <tableColumn id="5" xr3:uid="{C5A3B37B-3AEF-4496-A690-76F6A1D0CB92}" name="userName"/>
     <tableColumn id="4" xr3:uid="{C9E87F63-01B4-4AD3-8ECD-3206282A1874}" name="pw"/>
-    <tableColumn id="5" xr3:uid="{C5A3B37B-3AEF-4496-A690-76F6A1D0CB92}" name="userName"/>
     <tableColumn id="6" xr3:uid="{E0122506-3F36-4E70-84C4-1ADAD4994773}" name="phone"/>
     <tableColumn id="7" xr3:uid="{68A64757-A4A8-455E-B67A-B0FB3D157709}" name="userType"/>
     <tableColumn id="8" xr3:uid="{6A675EDE-87D6-45D2-904F-9FB5EBB6D2F6}" name="hospitalCode"/>
     <tableColumn id="9" xr3:uid="{C3D4B013-5FAB-4149-A225-4D860348454E}" name="roomCode"/>
+    <tableColumn id="2" xr3:uid="{C03887BE-668F-45DD-9916-C0C44EC4C452}" name="loginToken"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:E6" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName"/>
-    <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity"/>
-    <tableColumn id="3" xr3:uid="{B44582C9-2CB5-47C2-B909-F8EB3AFDAE5F}" name="roomCode"/>
-    <tableColumn id="4" xr3:uid="{BFAD81F1-5515-4059-85A1-F41D9835D5FE}" name="hospitalCode"/>
-    <tableColumn id="5" xr3:uid="{9D83C611-A4BA-45C6-B205-3368C45F2983}" name="roomSeq"/>
+    <tableColumn id="5" xr3:uid="{9D83C611-A4BA-45C6-B205-3368C45F2983}" name="roomSeq" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B44582C9-2CB5-47C2-B909-F8EB3AFDAE5F}" name="roomCode" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BFAD81F1-5515-4059-85A1-F41D9835D5FE}" name="hospitalCode" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D4" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4C8E330E-5FEE-4F1A-A252-7446A1DD52BB}" name="hospitalCode"/>
-    <tableColumn id="2" xr3:uid="{653B151D-186A-472C-9914-FA540F658E26}" name="address"/>
-    <tableColumn id="3" xr3:uid="{9BE5D693-F3B6-4EAF-8A67-D614E91E6BF2}" name="adminCode"/>
-    <tableColumn id="4" xr3:uid="{5A1BF5BD-F25A-43F3-B3BF-2FE9428D6DF7}" name="hospitalSeq"/>
+    <tableColumn id="4" xr3:uid="{5A1BF5BD-F25A-43F3-B3BF-2FE9428D6DF7}" name="hospitalSeq" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4C8E330E-5FEE-4F1A-A252-7446A1DD52BB}" name="hospitalCode" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{653B151D-186A-472C-9914-FA540F658E26}" name="address" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9BE5D693-F3B6-4EAF-8A67-D614E91E6BF2}" name="adminCode" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:N3" totalsRowShown="0">
-  <autoFilter ref="A1:N3" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
-  <tableColumns count="14">
-    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq"/>
-    <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="name"/>
-    <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age"/>
-    <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone"/>
-    <tableColumn id="4" xr3:uid="{D71301A2-74A6-4493-B9DE-8D10B992AFD9}" name="roomCode"/>
-    <tableColumn id="5" xr3:uid="{3716D98C-2A9A-4AB4-AFF6-DBE66271FB30}" name="hospitalCode"/>
-    <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate"/>
-    <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender"/>
-    <tableColumn id="9" xr3:uid="{9AEBCCF4-E010-4005-AB41-5811D1306197}" name="bedXposition"/>
-    <tableColumn id="10" xr3:uid="{2615489D-4AC2-41B7-B6A3-504F3A2787FD}" name="bedYposition"/>
-    <tableColumn id="11" xr3:uid="{A6B690BA-E726-41B1-A126-809E007F83AC}" name="otherBedX"/>
-    <tableColumn id="12" xr3:uid="{9419B038-337B-4834-A444-20AFE2E9F8C8}" name="otherBedY"/>
-    <tableColumn id="13" xr3:uid="{6A0745B2-EF9D-4F8C-9BA8-5FC8F5A550EB}" name="doorX"/>
-    <tableColumn id="14" xr3:uid="{AE1B7094-3D5C-4295-A0C3-74761BA65477}" name="doorY"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H6" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="patientnName" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D71301A2-74A6-4493-B9DE-8D10B992AFD9}" name="roomCode" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3716D98C-2A9A-4AB4-AFF6-DBE66271FB30}" name="hospitalCode" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26459EE2-A1A6-4515-8079-D1BD0C48C2D5}" name="표5" displayName="표5" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{2C5A17EC-0077-467F-8E66-FE1C68630226}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2F488DFE-9BF2-48F8-AF26-C5378A4FD53A}" name="bedCode"/>
+    <tableColumn id="2" xr3:uid="{5EA3A151-1144-44A5-91BC-647BB1BD3871}" name="roomCode"/>
+    <tableColumn id="3" xr3:uid="{71E9B69C-D287-4D34-A5AC-D9E7A1D8623E}" name="bedX"/>
+    <tableColumn id="4" xr3:uid="{5744E8C9-E0D5-4D7F-89EA-7913F3463CFC}" name="bedY"/>
+    <tableColumn id="5" xr3:uid="{38F46A5B-CC6B-4E57-82B4-1DBF1A276B62}" name="patientCode"/>
+    <tableColumn id="6" xr3:uid="{B784B3F9-8625-4FD9-934D-06BEB3588E1C}" name="patientName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -570,36 +789,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C6FA5-D791-4528-9D45-9C58A263ECD5}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -608,153 +828,291 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+      <c r="H3" ph="1">
+        <v>111</v>
+      </c>
+      <c r="I3" ph="1"/>
+      <c r="J3" ph="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+      <c r="H5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" ph="1"/>
-      <c r="I3" ph="1"/>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>222</v>
+      </c>
+      <c r="H6">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8A9AA3E1-886C-4120-90EA-AD58577AB1D2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{63D3C5D9-9467-4535-820D-D9CF794B0D31}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{07319F9F-DBE7-4B6D-8F0C-9F06632A297F}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E3E752B9-AB59-4EF4-A9AD-0FD98A522CB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585D3081-E49F-4685-97DB-769B8C332D54}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>222</v>
+      </c>
+      <c r="E4" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>111</v>
+      </c>
+      <c r="E5" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1101</v>
-      </c>
-      <c r="D4">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2202</v>
-      </c>
-      <c r="D5">
-        <v>2020</v>
-      </c>
+      <c r="D6" s="3">
+        <v>222</v>
+      </c>
+      <c r="E6" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -767,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3381C-D441-4B5E-AD32-B271DA92FD2E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,45 +1140,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>111</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
@@ -835,18 +1207,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
@@ -859,102 +1231,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3">
+        <v>111</v>
+      </c>
+      <c r="F3" s="3">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3">
+        <v>222</v>
+      </c>
+      <c r="F4" s="3">
+        <v>111</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3">
+        <v>222</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3">
+        <v>222</v>
+      </c>
+      <c r="F6" s="3">
+        <v>222</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75456644-7510-4ED7-A10E-FA80D234EEFD}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D329CC-CED7-4058-BA29-4E4138D2190D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE19F7A-23C2-4995-BEC5-C9B8A80D9815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="150" windowWidth="14130" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>patientCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>patientName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,22 @@
   </si>
   <si>
     <t>patientnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpatientname4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,14 +524,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26459EE2-A1A6-4515-8079-D1BD0C48C2D5}" name="표5" displayName="표5" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{2C5A17EC-0077-467F-8E66-FE1C68630226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26459EE2-A1A6-4515-8079-D1BD0C48C2D5}" name="표5" displayName="표5" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{2C5A17EC-0077-467F-8E66-FE1C68630226}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2F488DFE-9BF2-48F8-AF26-C5378A4FD53A}" name="bedCode"/>
     <tableColumn id="2" xr3:uid="{5EA3A151-1144-44A5-91BC-647BB1BD3871}" name="roomCode"/>
     <tableColumn id="3" xr3:uid="{71E9B69C-D287-4D34-A5AC-D9E7A1D8623E}" name="bedX"/>
     <tableColumn id="4" xr3:uid="{5744E8C9-E0D5-4D7F-89EA-7913F3463CFC}" name="bedY"/>
-    <tableColumn id="5" xr3:uid="{38F46A5B-CC6B-4E57-82B4-1DBF1A276B62}" name="patientCode"/>
+    <tableColumn id="5" xr3:uid="{38F46A5B-CC6B-4E57-82B4-1DBF1A276B62}" name="patientSeq"/>
     <tableColumn id="6" xr3:uid="{B784B3F9-8625-4FD9-934D-06BEB3588E1C}" name="patientName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -998,10 +1010,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,13 +1140,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1210,12 +1222,12 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
@@ -1235,7 +1247,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1426,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75456644-7510-4ED7-A10E-FA80D234EEFD}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1450,7 @@
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1456,18 +1468,18 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1476,10 +1488,90 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>222</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>222</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE19F7A-23C2-4995-BEC5-C9B8A80D9815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97A1DA-5889-4985-A81E-B8F9383A93E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="150" windowWidth="14130" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="45" windowWidth="15015" windowHeight="6975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Hospital" sheetId="4" r:id="rId3"/>
     <sheet name="Patient" sheetId="5" r:id="rId4"/>
     <sheet name="Bed" sheetId="7" r:id="rId5"/>
+    <sheet name="raspberryPI" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +313,10 @@
   </si>
   <si>
     <t>testpatientname4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,6 +538,18 @@
     <tableColumn id="4" xr3:uid="{5744E8C9-E0D5-4D7F-89EA-7913F3463CFC}" name="bedY"/>
     <tableColumn id="5" xr3:uid="{38F46A5B-CC6B-4E57-82B4-1DBF1A276B62}" name="patientSeq"/>
     <tableColumn id="6" xr3:uid="{B784B3F9-8625-4FD9-934D-06BEB3588E1C}" name="patientName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1081EDDF-7949-4B08-A76E-0D9BB9697B29}" name="serialNumber"/>
+    <tableColumn id="2" xr3:uid="{9844F9C2-2ADB-4CE7-AFAC-9C43DABABF54}" name="patientSeq"/>
+    <tableColumn id="3" xr3:uid="{57FBEA67-0820-4FDE-81E7-CD1ADF78E8F4}" name="bedCode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1221,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1584,6 +1601,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992789C-0D2F-4B9B-8A91-9B173F7D03BE}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
 <mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
   <mso:ribbon>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97A1DA-5889-4985-A81E-B8F9383A93E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D4986F-F91E-4212-ADC6-DC448AE24ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="45" windowWidth="15015" windowHeight="6975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="3195" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,22 @@
   </si>
   <si>
     <t>serialNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000026cd9a8f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testserialNumber2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testserialNumber3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testserialNumber4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1081EDDF-7949-4B08-A76E-0D9BB9697B29}" name="serialNumber"/>
     <tableColumn id="2" xr3:uid="{9844F9C2-2ADB-4CE7-AFAC-9C43DABABF54}" name="patientSeq"/>
@@ -1458,7 +1474,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,15 +1619,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992789C-0D2F-4B9B-8A91-9B173F7D03BE}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1625,6 +1641,50 @@
       </c>
       <c r="C1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D4986F-F91E-4212-ADC6-DC448AE24ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D912161-D854-48EF-9995-A32FA8D32304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3195" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="7935" windowWidth="14175" windowHeight="7410" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
     <sheet name="Room" sheetId="3" r:id="rId2"/>
-    <sheet name="Hospital" sheetId="4" r:id="rId3"/>
-    <sheet name="Patient" sheetId="5" r:id="rId4"/>
-    <sheet name="Bed" sheetId="7" r:id="rId5"/>
-    <sheet name="raspberryPI" sheetId="8" r:id="rId6"/>
+    <sheet name="Patient" sheetId="5" r:id="rId3"/>
+    <sheet name="Bed" sheetId="7" r:id="rId4"/>
+    <sheet name="raspberryPI" sheetId="8" r:id="rId5"/>
+    <sheet name="Alarm" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roomCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hospitalCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>warningRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hospitalSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>patientSeq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varhcar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,22 +120,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testname1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testpw1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testphone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testuserType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test2@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testname2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testname3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testname4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testpw2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,86 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testphone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testphone3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testphone4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testuserType2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testuserType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testuserType4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testroomName1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testroomName2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testroomName3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testroomName4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testaddress1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testaddress2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientphone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientphone3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientphone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientphone4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bedCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,26 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>patientnName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpatientname4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serialNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +189,110 @@
   </si>
   <si>
     <t>testserialNumber4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileimageurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paininfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄태욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9881-0664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9876-5432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4728-1798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/profileimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcceessToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileImageUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bitly.kr/cVd3xD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,19 +359,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -483,68 +431,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:I6" totalsRowShown="0">
-  <autoFilter ref="A1:I6" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069CB0B5-A9C4-4C34-9A2E-757D0B21ABE0}" name="표1" displayName="표1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{ED5923A3-EF80-4498-8823-7CA7FF7E1E66}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6D09DD67-084D-48CF-B411-F8E469AD0C7B}" name="userSeq"/>
     <tableColumn id="3" xr3:uid="{8AC04EDC-A089-4451-88D7-6DE9DEAD41C2}" name="email"/>
     <tableColumn id="5" xr3:uid="{C5A3B37B-3AEF-4496-A690-76F6A1D0CB92}" name="userName"/>
     <tableColumn id="4" xr3:uid="{C9E87F63-01B4-4AD3-8ECD-3206282A1874}" name="pw"/>
     <tableColumn id="6" xr3:uid="{E0122506-3F36-4E70-84C4-1ADAD4994773}" name="phone"/>
     <tableColumn id="7" xr3:uid="{68A64757-A4A8-455E-B67A-B0FB3D157709}" name="userType"/>
-    <tableColumn id="8" xr3:uid="{6A675EDE-87D6-45D2-904F-9FB5EBB6D2F6}" name="hospitalCode"/>
     <tableColumn id="9" xr3:uid="{C3D4B013-5FAB-4149-A225-4D860348454E}" name="roomCode"/>
-    <tableColumn id="2" xr3:uid="{C03887BE-668F-45DD-9916-C0C44EC4C452}" name="loginToken"/>
+    <tableColumn id="2" xr3:uid="{C03887BE-668F-45DD-9916-C0C44EC4C452}" name="AcceessToken"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:E6" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
-  <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{9D83C611-A4BA-45C6-B205-3368C45F2983}" name="roomSeq" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B44582C9-2CB5-47C2-B909-F8EB3AFDAE5F}" name="roomCode" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{BFAD81F1-5515-4059-85A1-F41D9835D5FE}" name="hospitalCode" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19725073-2F0A-4847-A53A-FF811206BA1A}" name="표2" displayName="표2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D6" xr:uid="{0E617AB3-F931-452D-8BAE-23D80A77722D}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{9D83C611-A4BA-45C6-B205-3368C45F2983}" name="roomSeq" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{A391504C-1C2E-413D-9D69-6F2D97BCAE6C}" name="roomName" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2D888BC4-1849-4865-814C-41EFEFD5F356}" name="capacity" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B44582C9-2CB5-47C2-B909-F8EB3AFDAE5F}" name="roomCode" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88F1DE93-56AB-432B-8B6D-5446B2FE32D5}" name="표4" displayName="표4" ref="A1:D4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:D4" xr:uid="{3080E739-8BD9-4838-A4C7-45FA6288CFCD}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{5A1BF5BD-F25A-43F3-B3BF-2FE9428D6DF7}" name="hospitalSeq" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{4C8E330E-5FEE-4F1A-A252-7446A1DD52BB}" name="hospitalCode" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{653B151D-186A-472C-9914-FA540F658E26}" name="address" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9BE5D693-F3B6-4EAF-8A67-D614E91E6BF2}" name="adminCode" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:K6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K6" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
+  <tableColumns count="11">
+    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="patientName" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D71301A2-74A6-4493-B9DE-8D10B992AFD9}" name="roomCode" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{53F0B5A0-BEA4-441B-B156-0F6FC6649CE0}" name="profileimageurl" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{3FC8CD16-B499-461C-87A1-0F1A240A8032}" name="imageurl" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{6D847697-FA68-45DD-BEE3-9A82ED1936C9}" name="paininfo" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{C081D982-E6D4-4D61-BCF6-BA6B7D0DB645}" name="bodyStatus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3F35F94-1395-40D3-9773-053F9E5CCE19}" name="data" displayName="data" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H6" xr:uid="{1845C36E-AD3F-4EF5-88A4-160EF9F6C073}"/>
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{758670AA-98BC-43AB-B8F0-B72E59FB85B9}" name="patientSeq" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{20980918-8DE3-429A-B9DA-0CD71F598E46}" name="patientnName" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CC3DC8A0-BC43-4C9E-86EE-708CA047FC29}" name="age" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D78371EA-747D-43DA-9322-2E47C3C36FE9}" name="phone" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D71301A2-74A6-4493-B9DE-8D10B992AFD9}" name="roomCode" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3716D98C-2A9A-4AB4-AFF6-DBE66271FB30}" name="hospitalCode" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C9BE7E28-E2A5-4E8B-9FC8-E22A7623BE4E}" name="warningRate" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DE6EF644-D361-49F3-A420-E21B777CD489}" name="gender" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26459EE2-A1A6-4515-8079-D1BD0C48C2D5}" name="표5" displayName="표5" ref="A1:F6" totalsRowShown="0">
   <autoFilter ref="A1:F6" xr:uid="{2C5A17EC-0077-467F-8E66-FE1C68630226}"/>
   <tableColumns count="6">
@@ -559,13 +495,27 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:C5" totalsRowShown="0">
   <autoFilter ref="A1:C5" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1081EDDF-7949-4B08-A76E-0D9BB9697B29}" name="serialNumber"/>
     <tableColumn id="2" xr3:uid="{9844F9C2-2ADB-4CE7-AFAC-9C43DABABF54}" name="patientSeq"/>
     <tableColumn id="3" xr3:uid="{57FBEA67-0820-4FDE-81E7-CD1ADF78E8F4}" name="bedCode"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{514D496E-A338-435B-973F-F84562FE1790}" name="표4" displayName="표4" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{867F7D5C-2B6C-4213-A2AC-267B4B9DCB6D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{25B36110-074A-4B46-9543-0D9B0C1CEB85}" name="userSeq"/>
+    <tableColumn id="2" xr3:uid="{C03408BB-3FB1-4B3E-A7F2-98B9D626A2A3}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{2DE8D2F9-9E19-453E-9FC2-B4ABA5FF3778}" name="profileImageUrl"/>
+    <tableColumn id="4" xr3:uid="{046131D4-15BB-4D5F-A875-E2AD9989325C}" name="warningRate"/>
+    <tableColumn id="5" xr3:uid="{7C26B4B9-08AC-4047-B9F3-9F2118AD68AD}" name="patientName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,7 +787,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -846,22 +796,21 @@
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -873,42 +822,36 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,26 +859,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
+        <v>59</v>
+      </c>
+      <c r="G3" ph="1">
         <v>111</v>
       </c>
-      <c r="H3" ph="1">
-        <v>111</v>
-      </c>
+      <c r="H3" ph="1"/>
       <c r="I3" ph="1"/>
       <c r="J3" ph="1"/>
     </row>
@@ -944,24 +885,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>111</v>
-      </c>
-      <c r="H4">
         <v>222</v>
       </c>
     </row>
@@ -970,24 +908,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>222</v>
-      </c>
-      <c r="H5">
         <v>111</v>
       </c>
     </row>
@@ -996,34 +931,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>222</v>
-      </c>
-      <c r="H6">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8A9AA3E1-886C-4120-90EA-AD58577AB1D2}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{63D3C5D9-9467-4535-820D-D9CF794B0D31}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{07319F9F-DBE7-4B6D-8F0C-9F06632A297F}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{E3E752B9-AB59-4EF4-A9AD-0FD98A522CB4}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E3E752B9-AB59-4EF4-A9AD-0FD98A522CB4}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{07319F9F-DBE7-4B6D-8F0C-9F06632A297F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{63D3C5D9-9467-4535-820D-D9CF794B0D31}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8A9AA3E1-886C-4120-90EA-AD58577AB1D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1035,10 +967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585D3081-E49F-4685-97DB-769B8C332D54}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,66 +979,56 @@
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>111</v>
       </c>
-      <c r="E3" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -1114,16 +1036,13 @@
       <c r="D4" s="3">
         <v>222</v>
       </c>
-      <c r="E4" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1131,114 +1050,282 @@
       <c r="D5" s="3">
         <v>111</v>
       </c>
-      <c r="E5" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>222</v>
       </c>
-      <c r="E6" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3381C-D441-4B5E-AD32-B271DA92FD2E}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3">
         <v>111</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3">
         <v>222</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3">
-        <v>2222</v>
-      </c>
+      <c r="C6" s="3">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3">
+        <v>222</v>
+      </c>
+      <c r="F6" s="3">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,230 +1338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED9986-A738-4A3F-921D-F27AD326098C}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3">
-        <v>111</v>
-      </c>
-      <c r="F3" s="3">
-        <v>111</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="3">
-        <v>222</v>
-      </c>
-      <c r="F4" s="3">
-        <v>111</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3">
-        <v>70</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="3">
-        <v>111</v>
-      </c>
-      <c r="F5" s="3">
-        <v>222</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3">
-        <v>222</v>
-      </c>
-      <c r="F6" s="3">
-        <v>222</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75456644-7510-4ED7-A10E-FA80D234EEFD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,42 +1357,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1604,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1617,11 +1485,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992789C-0D2F-4B9B-8A91-9B173F7D03BE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1634,18 +1502,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1656,7 +1524,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1667,7 +1535,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1678,7 +1546,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1693,6 +1561,99 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A93DACF-44B7-4779-B9F4-76736FE67C92}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B2B4253A-CDC8-40B4-BD2C-7579DE413393}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{9B21430D-D84D-45E0-B76F-7A33144B0805}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D912161-D854-48EF-9995-A32FA8D32304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF00FB-A8C8-4E7A-A8A0-1798EDD8D2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="7935" windowWidth="14175" windowHeight="7410" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="2205" windowWidth="14175" windowHeight="13860" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Bed" sheetId="7" r:id="rId4"/>
     <sheet name="raspberryPI" sheetId="8" r:id="rId5"/>
     <sheet name="Alarm" sheetId="9" r:id="rId6"/>
+    <sheet name="dir구성" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +294,150 @@
   </si>
   <si>
     <t>http://bitly.kr/cVd3xD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendAlarmList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editBedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomCodeSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendPatientInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchPatientInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokenlogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkemail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람리스트를 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동완성기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대정보 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호실정보 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험도 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 리스트 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정환자 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 사용가능여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/loginroutes.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/imageupload.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/patient.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/runModel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,6 +661,21 @@
     <tableColumn id="3" xr3:uid="{2DE8D2F9-9E19-453E-9FC2-B4ABA5FF3778}" name="profileImageUrl"/>
     <tableColumn id="4" xr3:uid="{046131D4-15BB-4D5F-A875-E2AD9989325C}" name="warningRate"/>
     <tableColumn id="5" xr3:uid="{7C26B4B9-08AC-4047-B9F3-9F2118AD68AD}" name="patientName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C89EA083-D82C-4382-8CD8-1FD8DEDB31F4}" name="표7" displayName="표7" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{AFF8B418-C8AE-4DFA-888F-06D450D62D1D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DC518033-BEC3-4240-8B03-A8E4FC4FB3AD}" name="함수"/>
+    <tableColumn id="2" xr3:uid="{A50FCE1B-C37E-47D8-A570-E8F73E494448}" name="기능"/>
+    <tableColumn id="3" xr3:uid="{5869EECE-18EA-48BA-B756-687235BA0A66}" name="위치"/>
+    <tableColumn id="4" xr3:uid="{08F663E7-5463-4551-8265-B611DD7A06E3}" name="response"/>
+    <tableColumn id="5" xr3:uid="{4A88C24E-9FC5-46C8-983D-FFB0C814B751}" name="request"/>
+    <tableColumn id="6" xr3:uid="{CEDD50DF-1158-41DA-9F1E-0B39350E9FB7}" name="구현여부"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1569,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A93DACF-44B7-4779-B9F4-76736FE67C92}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,6 +1814,197 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9844F3C9-90CB-414F-8EA5-065D29E93C89}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF00FB-A8C8-4E7A-A8A0-1798EDD8D2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFCF3B-31AA-4D34-81F4-7113545AD43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="2205" windowWidth="14175" windowHeight="13860" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="1125" windowWidth="14130" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,135 +309,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>알람리스트를 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동완성기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호실정보 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험도 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 리스트 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정환자 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 사용가능여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/loginroutes.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/imageupload.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/patient.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js/runModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access-Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendAlarmList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editBedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomCodeSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendPatientInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchPatientInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokenlogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkemail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람리스트를 보내줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동완성기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대정보 보내줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호실정보 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험도 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 리스트 보내줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정환자 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 사용가능여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js/loginroutes.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js/imageupload.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js/patient.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js/runModel</t>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status(400, 200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.*, status(400, 200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, userName, pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient.patientName, roomCode, status(400, 200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedCode, bedX, bedY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendAlarmList(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSearch(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedInfo(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editBedInfo(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomCodeSearch(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeRate(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendPatientInfo(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchPatientInfo(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokenlogin(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login(get)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:filename(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkemail(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정환자 침대정보 보내줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipaddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,41 +745,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C310A219-45AB-4518-B1FA-F558105D014C}" name="표6" displayName="표6" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{1D3CC117-F33B-4494-972C-3C6C615D4E3B}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1081EDDF-7949-4B08-A76E-0D9BB9697B29}" name="serialNumber"/>
     <tableColumn id="2" xr3:uid="{9844F9C2-2ADB-4CE7-AFAC-9C43DABABF54}" name="patientSeq"/>
     <tableColumn id="3" xr3:uid="{57FBEA67-0820-4FDE-81E7-CD1ADF78E8F4}" name="bedCode"/>
+    <tableColumn id="4" xr3:uid="{02FBE59D-A427-4CD4-8C7A-9F9BB76875C8}" name="Ipaddress"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{514D496E-A338-435B-973F-F84562FE1790}" name="표4" displayName="표4" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{867F7D5C-2B6C-4213-A2AC-267B4B9DCB6D}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{514D496E-A338-435B-973F-F84562FE1790}" name="표4" displayName="표4" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{867F7D5C-2B6C-4213-A2AC-267B4B9DCB6D}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{25B36110-074A-4B46-9543-0D9B0C1CEB85}" name="userSeq"/>
     <tableColumn id="2" xr3:uid="{C03408BB-3FB1-4B3E-A7F2-98B9D626A2A3}" name="Time"/>
     <tableColumn id="3" xr3:uid="{2DE8D2F9-9E19-453E-9FC2-B4ABA5FF3778}" name="profileImageUrl"/>
     <tableColumn id="4" xr3:uid="{046131D4-15BB-4D5F-A875-E2AD9989325C}" name="warningRate"/>
     <tableColumn id="5" xr3:uid="{7C26B4B9-08AC-4047-B9F3-9F2118AD68AD}" name="patientName"/>
+    <tableColumn id="6" xr3:uid="{696A8D5A-53B3-4598-9DAB-FFA4790FFF4B}" name="patientSeq"/>
+    <tableColumn id="7" xr3:uid="{BBFEA64A-658A-4C32-9090-E3D5828E20FF}" name="timestamp"/>
+    <tableColumn id="8" xr3:uid="{B7931692-59B9-4A4E-BEE7-C84DDF420F8E}" name="readed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C89EA083-D82C-4382-8CD8-1FD8DEDB31F4}" name="표7" displayName="표7" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{AFF8B418-C8AE-4DFA-888F-06D450D62D1D}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C89EA083-D82C-4382-8CD8-1FD8DEDB31F4}" name="표7" displayName="표7" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{AFF8B418-C8AE-4DFA-888F-06D450D62D1D}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DC518033-BEC3-4240-8B03-A8E4FC4FB3AD}" name="함수"/>
     <tableColumn id="2" xr3:uid="{A50FCE1B-C37E-47D8-A570-E8F73E494448}" name="기능"/>
     <tableColumn id="3" xr3:uid="{5869EECE-18EA-48BA-B756-687235BA0A66}" name="위치"/>
-    <tableColumn id="4" xr3:uid="{08F663E7-5463-4551-8265-B611DD7A06E3}" name="response"/>
-    <tableColumn id="5" xr3:uid="{4A88C24E-9FC5-46C8-983D-FFB0C814B751}" name="request"/>
-    <tableColumn id="6" xr3:uid="{CEDD50DF-1158-41DA-9F1E-0B39350E9FB7}" name="구현여부"/>
+    <tableColumn id="4" xr3:uid="{08F663E7-5463-4551-8265-B611DD7A06E3}" name="header"/>
+    <tableColumn id="5" xr3:uid="{4A88C24E-9FC5-46C8-983D-FFB0C814B751}" name="query"/>
+    <tableColumn id="6" xr3:uid="{CEDD50DF-1158-41DA-9F1E-0B39350E9FB7}" name="body"/>
+    <tableColumn id="8" xr3:uid="{481C3636-C07A-42F4-8242-434590D8BDFB}" name="response"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1647,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992789C-0D2F-4B9B-8A91-9B173F7D03BE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1658,9 +1767,10 @@
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1670,8 +1780,11 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1704,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1727,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A93DACF-44B7-4779-B9F4-76736FE67C92}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1740,9 +1853,11 @@
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1758,8 +1873,17 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1775,8 +1899,17 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1790,7 +1923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1820,23 +1953,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9844F3C9-90CB-414F-8EA5-065D29E93C89}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1847,156 +1982,231 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFCF3B-31AA-4D34-81F4-7113545AD43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6D342-EBB5-4B56-B9E2-D25411BD30D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1125" windowWidth="14130" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1740" windowWidth="14130" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1843,7 +1843,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Server/가디언즈 DB.xlsx
+++ b/Server/가디언즈 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ict\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6D342-EBB5-4B56-B9E2-D25411BD30D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA7550-0744-47F7-B2F1-C2160CC6F571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1740" windowWidth="14130" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="1800" windowWidth="14100" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="6" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585D3081-E49F-4685-97DB-769B8C332D54}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A93DACF-44B7-4779-B9F4-76736FE67C92}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
